--- a/data/processed/Keep Your Distance - Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8F8B2-4C52-415B-9B68-B7BC49C47E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B82226-0D7A-4329-A8CE-D50C9DDB9936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-28650" yWindow="3045" windowWidth="21600" windowHeight="15600" activeTab="2" xr2:uid="{92FB456C-D6AD-47D9-B55B-525F7B1369C7}"/>
+    <workbookView minimized="1" xWindow="-28635" yWindow="3045" windowWidth="8850" windowHeight="15600" activeTab="3" xr2:uid="{92FB456C-D6AD-47D9-B55B-525F7B1369C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep Your Distance - Evaluation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2549,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA6A83D-2436-4253-87AD-03E1707B0EB5}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2559,7 +2559,7 @@
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="84.42578125" customWidth="1"/>
+    <col min="6" max="6" width="96.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
@@ -3166,7 +3166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12273E6F-85B5-42F3-8B87-DB6EF419FCB8}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
